--- a/data/analysis/social_media_analytics/museums_on_fb_temporal-all_mus-W.xlsx
+++ b/data/analysis/social_media_analytics/museums_on_fb_temporal-all_mus-W.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="4">
   <si>
     <t>ts</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,7 +409,7 @@
         <v>43471</v>
       </c>
       <c r="B2">
-        <v>918</v>
+        <v>1278</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -420,7 +420,7 @@
         <v>43478</v>
       </c>
       <c r="B3">
-        <v>972</v>
+        <v>1391</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -431,7 +431,7 @@
         <v>43485</v>
       </c>
       <c r="B4">
-        <v>986</v>
+        <v>1414</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -442,7 +442,7 @@
         <v>43492</v>
       </c>
       <c r="B5">
-        <v>1003</v>
+        <v>1448</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -453,7 +453,7 @@
         <v>43499</v>
       </c>
       <c r="B6">
-        <v>1014</v>
+        <v>1494</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -464,7 +464,7 @@
         <v>43506</v>
       </c>
       <c r="B7">
-        <v>1012</v>
+        <v>1454</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -475,7 +475,7 @@
         <v>43513</v>
       </c>
       <c r="B8">
-        <v>1041</v>
+        <v>1535</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -486,7 +486,7 @@
         <v>43520</v>
       </c>
       <c r="B9">
-        <v>1023</v>
+        <v>1488</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -497,7 +497,7 @@
         <v>43527</v>
       </c>
       <c r="B10">
-        <v>1020</v>
+        <v>1498</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -508,7 +508,7 @@
         <v>43534</v>
       </c>
       <c r="B11">
-        <v>1033</v>
+        <v>1528</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -519,7 +519,7 @@
         <v>43541</v>
       </c>
       <c r="B12">
-        <v>1042</v>
+        <v>1517</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -530,7 +530,7 @@
         <v>43548</v>
       </c>
       <c r="B13">
-        <v>1022</v>
+        <v>1501</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -541,7 +541,7 @@
         <v>43555</v>
       </c>
       <c r="B14">
-        <v>1035</v>
+        <v>1547</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -552,7 +552,7 @@
         <v>43562</v>
       </c>
       <c r="B15">
-        <v>1044</v>
+        <v>1589</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -563,7 +563,7 @@
         <v>43569</v>
       </c>
       <c r="B16">
-        <v>1055</v>
+        <v>1553</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -574,7 +574,7 @@
         <v>43576</v>
       </c>
       <c r="B17">
-        <v>1049</v>
+        <v>1594</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -585,7 +585,7 @@
         <v>43583</v>
       </c>
       <c r="B18">
-        <v>1032</v>
+        <v>1548</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -596,7 +596,7 @@
         <v>43590</v>
       </c>
       <c r="B19">
-        <v>1059</v>
+        <v>1609</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -607,7 +607,7 @@
         <v>43597</v>
       </c>
       <c r="B20">
-        <v>1046</v>
+        <v>1566</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -618,7 +618,7 @@
         <v>43604</v>
       </c>
       <c r="B21">
-        <v>1052</v>
+        <v>1565</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -629,7 +629,7 @@
         <v>43611</v>
       </c>
       <c r="B22">
-        <v>1068</v>
+        <v>1601</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -640,7 +640,7 @@
         <v>43618</v>
       </c>
       <c r="B23">
-        <v>1043</v>
+        <v>1580</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -651,7 +651,7 @@
         <v>43625</v>
       </c>
       <c r="B24">
-        <v>1053</v>
+        <v>1580</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -662,7 +662,7 @@
         <v>43632</v>
       </c>
       <c r="B25">
-        <v>1037</v>
+        <v>1540</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -673,7 +673,7 @@
         <v>43639</v>
       </c>
       <c r="B26">
-        <v>1058</v>
+        <v>1565</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -684,7 +684,7 @@
         <v>43646</v>
       </c>
       <c r="B27">
-        <v>1050</v>
+        <v>1564</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -695,7 +695,7 @@
         <v>43653</v>
       </c>
       <c r="B28">
-        <v>1050</v>
+        <v>1566</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -706,7 +706,7 @@
         <v>43660</v>
       </c>
       <c r="B29">
-        <v>1054</v>
+        <v>1552</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -717,7 +717,7 @@
         <v>43667</v>
       </c>
       <c r="B30">
-        <v>1077</v>
+        <v>1579</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -728,7 +728,7 @@
         <v>43674</v>
       </c>
       <c r="B31">
-        <v>1075</v>
+        <v>1598</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -739,7 +739,7 @@
         <v>43681</v>
       </c>
       <c r="B32">
-        <v>1071</v>
+        <v>1571</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -750,7 +750,7 @@
         <v>43688</v>
       </c>
       <c r="B33">
-        <v>1066</v>
+        <v>1571</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -761,7 +761,7 @@
         <v>43695</v>
       </c>
       <c r="B34">
-        <v>1073</v>
+        <v>1578</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -772,7 +772,7 @@
         <v>43702</v>
       </c>
       <c r="B35">
-        <v>1065</v>
+        <v>1569</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -783,7 +783,7 @@
         <v>43709</v>
       </c>
       <c r="B36">
-        <v>1048</v>
+        <v>1543</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -794,7 +794,7 @@
         <v>43716</v>
       </c>
       <c r="B37">
-        <v>1045</v>
+        <v>1540</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -805,7 +805,7 @@
         <v>43723</v>
       </c>
       <c r="B38">
-        <v>1059</v>
+        <v>1557</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -816,7 +816,7 @@
         <v>43730</v>
       </c>
       <c r="B39">
-        <v>1050</v>
+        <v>1574</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -827,7 +827,7 @@
         <v>43737</v>
       </c>
       <c r="B40">
-        <v>1038</v>
+        <v>1524</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -838,7 +838,7 @@
         <v>43744</v>
       </c>
       <c r="B41">
-        <v>1043</v>
+        <v>1545</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -849,7 +849,7 @@
         <v>43751</v>
       </c>
       <c r="B42">
-        <v>1027</v>
+        <v>1509</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>43758</v>
       </c>
       <c r="B43">
-        <v>1064</v>
+        <v>1544</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -871,7 +871,7 @@
         <v>43765</v>
       </c>
       <c r="B44">
-        <v>1077</v>
+        <v>1586</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -882,7 +882,7 @@
         <v>43772</v>
       </c>
       <c r="B45">
-        <v>1056</v>
+        <v>1566</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -893,7 +893,7 @@
         <v>43779</v>
       </c>
       <c r="B46">
-        <v>1046</v>
+        <v>1530</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -904,7 +904,7 @@
         <v>43786</v>
       </c>
       <c r="B47">
-        <v>1038</v>
+        <v>1521</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -915,7 +915,7 @@
         <v>43793</v>
       </c>
       <c r="B48">
-        <v>1050</v>
+        <v>1497</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -926,7 +926,7 @@
         <v>43800</v>
       </c>
       <c r="B49">
-        <v>1054</v>
+        <v>1535</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -937,7 +937,7 @@
         <v>43807</v>
       </c>
       <c r="B50">
-        <v>1042</v>
+        <v>1536</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -948,7 +948,7 @@
         <v>43814</v>
       </c>
       <c r="B51">
-        <v>1038</v>
+        <v>1484</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -959,7 +959,7 @@
         <v>43821</v>
       </c>
       <c r="B52">
-        <v>1034</v>
+        <v>1474</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -970,7 +970,7 @@
         <v>43828</v>
       </c>
       <c r="B53">
-        <v>935</v>
+        <v>1281</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -981,7 +981,7 @@
         <v>43835</v>
       </c>
       <c r="B54">
-        <v>919</v>
+        <v>1289</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -992,7 +992,7 @@
         <v>43842</v>
       </c>
       <c r="B55">
-        <v>973</v>
+        <v>1412</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -1003,7 +1003,7 @@
         <v>43849</v>
       </c>
       <c r="B56">
-        <v>1007</v>
+        <v>1416</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -1014,7 +1014,7 @@
         <v>43856</v>
       </c>
       <c r="B57">
-        <v>1004</v>
+        <v>1455</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1025,7 +1025,7 @@
         <v>43863</v>
       </c>
       <c r="B58">
-        <v>1018</v>
+        <v>1477</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -1036,7 +1036,7 @@
         <v>43870</v>
       </c>
       <c r="B59">
-        <v>1041</v>
+        <v>1519</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
@@ -1047,7 +1047,7 @@
         <v>43877</v>
       </c>
       <c r="B60">
-        <v>1065</v>
+        <v>1550</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -1058,7 +1058,7 @@
         <v>43884</v>
       </c>
       <c r="B61">
-        <v>1058</v>
+        <v>1536</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1069,7 +1069,7 @@
         <v>43891</v>
       </c>
       <c r="B62">
-        <v>1045</v>
+        <v>1531</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
@@ -1080,7 +1080,7 @@
         <v>43898</v>
       </c>
       <c r="B63">
-        <v>1051</v>
+        <v>1531</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -1091,7 +1091,7 @@
         <v>43905</v>
       </c>
       <c r="B64">
-        <v>1042</v>
+        <v>1526</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -1102,7 +1102,7 @@
         <v>43912</v>
       </c>
       <c r="B65">
-        <v>1138</v>
+        <v>1776</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -1113,7 +1113,7 @@
         <v>43919</v>
       </c>
       <c r="B66">
-        <v>1002</v>
+        <v>1464</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -1124,7 +1124,7 @@
         <v>43926</v>
       </c>
       <c r="B67">
-        <v>1030</v>
+        <v>1493</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -1135,7 +1135,7 @@
         <v>43933</v>
       </c>
       <c r="B68">
-        <v>1036</v>
+        <v>1495</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -1146,7 +1146,7 @@
         <v>43940</v>
       </c>
       <c r="B69">
-        <v>962</v>
+        <v>1399</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -1157,7 +1157,7 @@
         <v>43947</v>
       </c>
       <c r="B70">
-        <v>984</v>
+        <v>1430</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -1168,7 +1168,7 @@
         <v>43954</v>
       </c>
       <c r="B71">
-        <v>986</v>
+        <v>1463</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
@@ -1179,7 +1179,7 @@
         <v>43961</v>
       </c>
       <c r="B72">
-        <v>991</v>
+        <v>1468</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -1190,7 +1190,7 @@
         <v>43968</v>
       </c>
       <c r="B73">
-        <v>979</v>
+        <v>1433</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -1201,7 +1201,7 @@
         <v>43975</v>
       </c>
       <c r="B74">
-        <v>962</v>
+        <v>1402</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -1212,7 +1212,7 @@
         <v>43982</v>
       </c>
       <c r="B75">
-        <v>965</v>
+        <v>1400</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1223,7 +1223,7 @@
         <v>43989</v>
       </c>
       <c r="B76">
-        <v>994</v>
+        <v>1442</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -1234,7 +1234,7 @@
         <v>43996</v>
       </c>
       <c r="B77">
-        <v>966</v>
+        <v>1384</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -1245,7 +1245,7 @@
         <v>44003</v>
       </c>
       <c r="B78">
-        <v>965</v>
+        <v>1394</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -1256,7 +1256,7 @@
         <v>44010</v>
       </c>
       <c r="B79">
-        <v>981</v>
+        <v>1427</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -1267,7 +1267,7 @@
         <v>44017</v>
       </c>
       <c r="B80">
-        <v>998</v>
+        <v>1461</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -1278,7 +1278,7 @@
         <v>44024</v>
       </c>
       <c r="B81">
-        <v>985</v>
+        <v>1444</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -1289,7 +1289,7 @@
         <v>44031</v>
       </c>
       <c r="B82">
-        <v>995</v>
+        <v>1426</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -1300,7 +1300,7 @@
         <v>44038</v>
       </c>
       <c r="B83">
-        <v>978</v>
+        <v>1431</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1311,7 +1311,7 @@
         <v>44045</v>
       </c>
       <c r="B84">
-        <v>969</v>
+        <v>1430</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -1322,7 +1322,7 @@
         <v>44052</v>
       </c>
       <c r="B85">
-        <v>985</v>
+        <v>1422</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -1333,7 +1333,7 @@
         <v>44059</v>
       </c>
       <c r="B86">
-        <v>989</v>
+        <v>1453</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -1344,7 +1344,7 @@
         <v>44066</v>
       </c>
       <c r="B87">
-        <v>974</v>
+        <v>1426</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -1355,7 +1355,7 @@
         <v>44073</v>
       </c>
       <c r="B88">
-        <v>994</v>
+        <v>1441</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -1366,7 +1366,7 @@
         <v>44080</v>
       </c>
       <c r="B89">
-        <v>988</v>
+        <v>1415</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -1377,7 +1377,7 @@
         <v>44087</v>
       </c>
       <c r="B90">
-        <v>983</v>
+        <v>1432</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -1388,7 +1388,7 @@
         <v>44094</v>
       </c>
       <c r="B91">
-        <v>987</v>
+        <v>1418</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -1399,7 +1399,7 @@
         <v>44101</v>
       </c>
       <c r="B92">
-        <v>998</v>
+        <v>1406</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -1410,7 +1410,7 @@
         <v>44108</v>
       </c>
       <c r="B93">
-        <v>992</v>
+        <v>1445</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
@@ -1421,7 +1421,7 @@
         <v>44115</v>
       </c>
       <c r="B94">
-        <v>1014</v>
+        <v>1458</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
@@ -1432,7 +1432,7 @@
         <v>44122</v>
       </c>
       <c r="B95">
-        <v>1008</v>
+        <v>1465</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -1443,7 +1443,7 @@
         <v>44129</v>
       </c>
       <c r="B96">
-        <v>1018</v>
+        <v>1480</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -1454,7 +1454,7 @@
         <v>44136</v>
       </c>
       <c r="B97">
-        <v>1021</v>
+        <v>1485</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -1465,7 +1465,7 @@
         <v>44143</v>
       </c>
       <c r="B98">
-        <v>1033</v>
+        <v>1516</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -1476,7 +1476,7 @@
         <v>44150</v>
       </c>
       <c r="B99">
-        <v>988</v>
+        <v>1414</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
@@ -1487,7 +1487,7 @@
         <v>44157</v>
       </c>
       <c r="B100">
-        <v>981</v>
+        <v>1408</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
@@ -1498,7 +1498,7 @@
         <v>44164</v>
       </c>
       <c r="B101">
-        <v>995</v>
+        <v>1411</v>
       </c>
       <c r="C101" t="s">
         <v>3</v>
@@ -1509,7 +1509,7 @@
         <v>44171</v>
       </c>
       <c r="B102">
-        <v>1035</v>
+        <v>1490</v>
       </c>
       <c r="C102" t="s">
         <v>3</v>
@@ -1520,7 +1520,7 @@
         <v>44178</v>
       </c>
       <c r="B103">
-        <v>1023</v>
+        <v>1462</v>
       </c>
       <c r="C103" t="s">
         <v>3</v>
@@ -1531,7 +1531,7 @@
         <v>44185</v>
       </c>
       <c r="B104">
-        <v>1008</v>
+        <v>1453</v>
       </c>
       <c r="C104" t="s">
         <v>3</v>
@@ -1542,7 +1542,7 @@
         <v>44192</v>
       </c>
       <c r="B105">
-        <v>1011</v>
+        <v>1444</v>
       </c>
       <c r="C105" t="s">
         <v>3</v>
@@ -1553,7 +1553,7 @@
         <v>44199</v>
       </c>
       <c r="B106">
-        <v>886</v>
+        <v>1226</v>
       </c>
       <c r="C106" t="s">
         <v>3</v>
@@ -1564,7 +1564,7 @@
         <v>44206</v>
       </c>
       <c r="B107">
-        <v>923</v>
+        <v>1287</v>
       </c>
       <c r="C107" t="s">
         <v>3</v>
@@ -1575,7 +1575,7 @@
         <v>44213</v>
       </c>
       <c r="B108">
-        <v>934</v>
+        <v>1304</v>
       </c>
       <c r="C108" t="s">
         <v>3</v>
@@ -1586,7 +1586,7 @@
         <v>44220</v>
       </c>
       <c r="B109">
-        <v>951</v>
+        <v>1334</v>
       </c>
       <c r="C109" t="s">
         <v>3</v>
@@ -1597,7 +1597,7 @@
         <v>44227</v>
       </c>
       <c r="B110">
-        <v>946</v>
+        <v>1330</v>
       </c>
       <c r="C110" t="s">
         <v>3</v>
@@ -1608,7 +1608,7 @@
         <v>44234</v>
       </c>
       <c r="B111">
-        <v>951</v>
+        <v>1372</v>
       </c>
       <c r="C111" t="s">
         <v>3</v>
@@ -1619,7 +1619,7 @@
         <v>44241</v>
       </c>
       <c r="B112">
-        <v>995</v>
+        <v>1419</v>
       </c>
       <c r="C112" t="s">
         <v>3</v>
@@ -1630,7 +1630,7 @@
         <v>44248</v>
       </c>
       <c r="B113">
-        <v>951</v>
+        <v>1350</v>
       </c>
       <c r="C113" t="s">
         <v>3</v>
@@ -1641,7 +1641,7 @@
         <v>44255</v>
       </c>
       <c r="B114">
-        <v>975</v>
+        <v>1396</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
@@ -1652,7 +1652,7 @@
         <v>44262</v>
       </c>
       <c r="B115">
-        <v>998</v>
+        <v>1435</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
@@ -1663,7 +1663,7 @@
         <v>44269</v>
       </c>
       <c r="B116">
-        <v>982</v>
+        <v>1399</v>
       </c>
       <c r="C116" t="s">
         <v>3</v>
@@ -1674,7 +1674,7 @@
         <v>44276</v>
       </c>
       <c r="B117">
-        <v>974</v>
+        <v>1409</v>
       </c>
       <c r="C117" t="s">
         <v>3</v>
@@ -1685,7 +1685,7 @@
         <v>44283</v>
       </c>
       <c r="B118">
-        <v>992</v>
+        <v>1409</v>
       </c>
       <c r="C118" t="s">
         <v>3</v>
@@ -1696,7 +1696,7 @@
         <v>44290</v>
       </c>
       <c r="B119">
-        <v>1018</v>
+        <v>1496</v>
       </c>
       <c r="C119" t="s">
         <v>3</v>
@@ -1707,7 +1707,7 @@
         <v>44297</v>
       </c>
       <c r="B120">
-        <v>990</v>
+        <v>1459</v>
       </c>
       <c r="C120" t="s">
         <v>3</v>
@@ -1718,7 +1718,7 @@
         <v>44304</v>
       </c>
       <c r="B121">
-        <v>972</v>
+        <v>1415</v>
       </c>
       <c r="C121" t="s">
         <v>3</v>
@@ -1729,7 +1729,7 @@
         <v>44311</v>
       </c>
       <c r="B122">
-        <v>1005</v>
+        <v>1476</v>
       </c>
       <c r="C122" t="s">
         <v>3</v>
@@ -1740,7 +1740,7 @@
         <v>44318</v>
       </c>
       <c r="B123">
-        <v>999</v>
+        <v>1476</v>
       </c>
       <c r="C123" t="s">
         <v>3</v>
@@ -1751,7 +1751,7 @@
         <v>44325</v>
       </c>
       <c r="B124">
-        <v>1015</v>
+        <v>1487</v>
       </c>
       <c r="C124" t="s">
         <v>3</v>
@@ -1762,7 +1762,7 @@
         <v>44332</v>
       </c>
       <c r="B125">
-        <v>1049</v>
+        <v>1559</v>
       </c>
       <c r="C125" t="s">
         <v>3</v>
@@ -1773,7 +1773,7 @@
         <v>44339</v>
       </c>
       <c r="B126">
-        <v>1063</v>
+        <v>1577</v>
       </c>
       <c r="C126" t="s">
         <v>3</v>
@@ -1784,7 +1784,7 @@
         <v>44346</v>
       </c>
       <c r="B127">
-        <v>1042</v>
+        <v>1546</v>
       </c>
       <c r="C127" t="s">
         <v>3</v>
@@ -1795,7 +1795,7 @@
         <v>44353</v>
       </c>
       <c r="B128">
-        <v>1039</v>
+        <v>1565</v>
       </c>
       <c r="C128" t="s">
         <v>3</v>
@@ -1806,7 +1806,7 @@
         <v>44360</v>
       </c>
       <c r="B129">
-        <v>1026</v>
+        <v>1504</v>
       </c>
       <c r="C129" t="s">
         <v>3</v>
@@ -1817,7 +1817,7 @@
         <v>44367</v>
       </c>
       <c r="B130">
-        <v>1030</v>
+        <v>1528</v>
       </c>
       <c r="C130" t="s">
         <v>3</v>
@@ -1828,7 +1828,7 @@
         <v>44374</v>
       </c>
       <c r="B131">
-        <v>1024</v>
+        <v>1530</v>
       </c>
       <c r="C131" t="s">
         <v>3</v>
@@ -1839,7 +1839,7 @@
         <v>44381</v>
       </c>
       <c r="B132">
-        <v>1033</v>
+        <v>1539</v>
       </c>
       <c r="C132" t="s">
         <v>3</v>
@@ -1850,7 +1850,7 @@
         <v>44388</v>
       </c>
       <c r="B133">
-        <v>1014</v>
+        <v>1496</v>
       </c>
       <c r="C133" t="s">
         <v>3</v>
@@ -1861,7 +1861,7 @@
         <v>44395</v>
       </c>
       <c r="B134">
-        <v>1007</v>
+        <v>1509</v>
       </c>
       <c r="C134" t="s">
         <v>3</v>
@@ -1872,7 +1872,7 @@
         <v>44402</v>
       </c>
       <c r="B135">
-        <v>1041</v>
+        <v>1556</v>
       </c>
       <c r="C135" t="s">
         <v>3</v>
@@ -1883,7 +1883,7 @@
         <v>44409</v>
       </c>
       <c r="B136">
-        <v>1043</v>
+        <v>1558</v>
       </c>
       <c r="C136" t="s">
         <v>3</v>
@@ -1894,7 +1894,7 @@
         <v>44416</v>
       </c>
       <c r="B137">
-        <v>1030</v>
+        <v>1541</v>
       </c>
       <c r="C137" t="s">
         <v>3</v>
@@ -1905,7 +1905,7 @@
         <v>44423</v>
       </c>
       <c r="B138">
-        <v>1015</v>
+        <v>1515</v>
       </c>
       <c r="C138" t="s">
         <v>3</v>
@@ -1916,7 +1916,7 @@
         <v>44430</v>
       </c>
       <c r="B139">
-        <v>1015</v>
+        <v>1515</v>
       </c>
       <c r="C139" t="s">
         <v>3</v>
@@ -1927,7 +1927,7 @@
         <v>44437</v>
       </c>
       <c r="B140">
-        <v>1016</v>
+        <v>1501</v>
       </c>
       <c r="C140" t="s">
         <v>3</v>
@@ -1938,7 +1938,7 @@
         <v>44444</v>
       </c>
       <c r="B141">
-        <v>1003</v>
+        <v>1495</v>
       </c>
       <c r="C141" t="s">
         <v>3</v>
@@ -1949,7 +1949,7 @@
         <v>44451</v>
       </c>
       <c r="B142">
-        <v>1028</v>
+        <v>1544</v>
       </c>
       <c r="C142" t="s">
         <v>3</v>
@@ -1960,7 +1960,7 @@
         <v>44458</v>
       </c>
       <c r="B143">
-        <v>1009</v>
+        <v>1505</v>
       </c>
       <c r="C143" t="s">
         <v>3</v>
@@ -1971,7 +1971,7 @@
         <v>44465</v>
       </c>
       <c r="B144">
-        <v>1014</v>
+        <v>1510</v>
       </c>
       <c r="C144" t="s">
         <v>3</v>
@@ -1982,9 +1982,394 @@
         <v>44472</v>
       </c>
       <c r="B145">
-        <v>942</v>
+        <v>1524</v>
       </c>
       <c r="C145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>44479</v>
+      </c>
+      <c r="B146">
+        <v>1496</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>44486</v>
+      </c>
+      <c r="B147">
+        <v>1489</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>44493</v>
+      </c>
+      <c r="B148">
+        <v>1535</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B149">
+        <v>1564</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>44507</v>
+      </c>
+      <c r="B150">
+        <v>1495</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>44514</v>
+      </c>
+      <c r="B151">
+        <v>1534</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>44521</v>
+      </c>
+      <c r="B152">
+        <v>1479</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>44528</v>
+      </c>
+      <c r="B153">
+        <v>1520</v>
+      </c>
+      <c r="C153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>44535</v>
+      </c>
+      <c r="B154">
+        <v>1521</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>44542</v>
+      </c>
+      <c r="B155">
+        <v>1471</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>44549</v>
+      </c>
+      <c r="B156">
+        <v>1461</v>
+      </c>
+      <c r="C156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>44556</v>
+      </c>
+      <c r="B157">
+        <v>1485</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>44563</v>
+      </c>
+      <c r="B158">
+        <v>1197</v>
+      </c>
+      <c r="C158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>44570</v>
+      </c>
+      <c r="B159">
+        <v>1293</v>
+      </c>
+      <c r="C159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>44577</v>
+      </c>
+      <c r="B160">
+        <v>1365</v>
+      </c>
+      <c r="C160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>44584</v>
+      </c>
+      <c r="B161">
+        <v>1398</v>
+      </c>
+      <c r="C161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>44591</v>
+      </c>
+      <c r="B162">
+        <v>1460</v>
+      </c>
+      <c r="C162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B163">
+        <v>1489</v>
+      </c>
+      <c r="C163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B164">
+        <v>1506</v>
+      </c>
+      <c r="C164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B165">
+        <v>1555</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B166">
+        <v>1546</v>
+      </c>
+      <c r="C166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>44626</v>
+      </c>
+      <c r="B167">
+        <v>1574</v>
+      </c>
+      <c r="C167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>44633</v>
+      </c>
+      <c r="B168">
+        <v>1549</v>
+      </c>
+      <c r="C168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>44640</v>
+      </c>
+      <c r="B169">
+        <v>1576</v>
+      </c>
+      <c r="C169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>44647</v>
+      </c>
+      <c r="B170">
+        <v>1594</v>
+      </c>
+      <c r="C170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>44654</v>
+      </c>
+      <c r="B171">
+        <v>1612</v>
+      </c>
+      <c r="C171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>44661</v>
+      </c>
+      <c r="B172">
+        <v>1636</v>
+      </c>
+      <c r="C172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>44668</v>
+      </c>
+      <c r="B173">
+        <v>1654</v>
+      </c>
+      <c r="C173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>44675</v>
+      </c>
+      <c r="B174">
+        <v>1610</v>
+      </c>
+      <c r="C174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B175">
+        <v>1589</v>
+      </c>
+      <c r="C175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>44689</v>
+      </c>
+      <c r="B176">
+        <v>1615</v>
+      </c>
+      <c r="C176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B177">
+        <v>1626</v>
+      </c>
+      <c r="C177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>44703</v>
+      </c>
+      <c r="B178">
+        <v>1653</v>
+      </c>
+      <c r="C178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>44710</v>
+      </c>
+      <c r="B179">
+        <v>1643</v>
+      </c>
+      <c r="C179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>44717</v>
+      </c>
+      <c r="B180">
+        <v>1250</v>
+      </c>
+      <c r="C180" t="s">
         <v>3</v>
       </c>
     </row>
